--- a/开发部点餐.xlsx
+++ b/开发部点餐.xlsx
@@ -1,21 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kongyan/Desktop/DBSoftDocument/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="5月份点餐 - 5月份点餐" sheetId="1" r:id="rId4"/>
-    <sheet name="6月份点餐 - 6月份点餐" sheetId="2" r:id="rId5"/>
-    <sheet name="7月份点餐 - 7月份点餐" sheetId="3" r:id="rId6"/>
-    <sheet name="发票登记 - 发票登记" sheetId="4" r:id="rId7"/>
+    <sheet name="5月份点餐 - 5月份点餐" sheetId="1" r:id="rId1"/>
+    <sheet name="6月份点餐 - 6月份点餐" sheetId="2" r:id="rId2"/>
+    <sheet name="7月份点餐 - 7月份点餐" sheetId="3" r:id="rId3"/>
+    <sheet name="发票登记 - 发票登记" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>5月份点餐</t>
   </si>
@@ -122,20 +137,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Avenir Next"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="9"/>
-      <name val="Avenir Next Demi Bold"/>
     </font>
     <font>
       <sz val="12"/>
@@ -160,6 +167,10 @@
     <font>
       <sz val="10"/>
       <color indexed="16"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Avenir Next"/>
     </font>
   </fonts>
@@ -201,55 +212,39 @@
       <left/>
       <right/>
       <top/>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right>
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom/>
@@ -264,139 +259,188 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff313131"/>
-      <rgbColor rgb="fffefefe"/>
-      <rgbColor rgb="ff008cb4"/>
-      <rgbColor rgb="ffe6f6fb"/>
-      <rgbColor rgb="ffeeeeee"/>
-      <rgbColor rgb="ffe22400"/>
-      <rgbColor rgb="ffbc1e00"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF313131"/>
+      <rgbColor rgb="FFFEFEFE"/>
+      <rgbColor rgb="FF008CB4"/>
+      <rgbColor rgb="FFE6F6FB"/>
+      <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFE22400"/>
+      <rgbColor rgb="FFBC1E00"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08_Checklist">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="08_Checklist">
   <a:themeElements>
     <a:clrScheme name="08_Checklist">
       <a:dk1>
@@ -522,7 +566,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -531,7 +575,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -609,7 +653,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -617,7 +661,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -636,7 +680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -666,7 +710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -692,7 +736,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -718,7 +762,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -744,7 +788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -770,7 +814,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -796,7 +840,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +866,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,7 +892,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +918,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,9 +931,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -910,7 +960,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -929,7 +979,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -955,7 +1005,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -981,7 +1031,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,7 +1057,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +1083,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +1109,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1135,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1187,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1213,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,9 +1226,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1192,7 +1248,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1211,7 +1267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1241,7 +1297,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1267,7 +1323,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1293,7 +1349,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1319,7 +1375,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1345,7 +1401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1371,7 +1427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1397,7 +1453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1423,7 +1479,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1449,7 +1505,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1462,496 +1518,503 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="21.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6562" style="1" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="5" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
+    <col min="7" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.3" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="4">
-        <v>41760</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="3" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="B3" s="3">
         <v>130</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>89</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>40</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" ht="22" customHeight="1">
-      <c r="A4" s="8">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>5.3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>150</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>120</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>30</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>0</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="22" customHeight="1">
-      <c r="A5" s="8">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>5.4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>110</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>79</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>30</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" ht="22.25" customHeight="1">
-      <c r="A6" s="8">
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>5.7</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>20</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>20</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" t="s" s="15">
+      <c r="F6" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="22" customHeight="1">
-      <c r="A7" s="8">
+    <row r="7" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>5.8</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>110</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>79</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>30</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" ht="22.25" customHeight="1">
-      <c r="A8" s="8">
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>5.9</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>180</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>142</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>40</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>-2</v>
       </c>
-      <c r="F8" t="s" s="15">
+      <c r="F8" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" ht="22.25" customHeight="1">
-      <c r="A9" s="8">
-        <v>5.1</v>
-      </c>
-      <c r="B9" s="12">
+    <row r="9" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B9" s="10">
         <v>180</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>147</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>30</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <v>3</v>
       </c>
-      <c r="F9" t="s" s="16">
+      <c r="F9" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="22.25" customHeight="1">
-      <c r="A10" s="8">
-        <v>5.11</v>
-      </c>
-      <c r="B10" s="9">
+    <row r="10" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="B10" s="7">
         <v>220</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>194</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>30</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>-4</v>
       </c>
-      <c r="F10" t="s" s="15">
+      <c r="F10" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" ht="22" customHeight="1">
-      <c r="A11" s="8">
+    <row r="11" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>5.14</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>150</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>118</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>30</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>2</v>
       </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" ht="22" customHeight="1">
-      <c r="A12" s="8">
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>5.15</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>150</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>131</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>20</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>-1</v>
       </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" ht="22" customHeight="1">
-      <c r="A13" s="8">
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>5.16</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>150</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>119</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>30</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" ht="22" customHeight="1">
-      <c r="A14" s="8">
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>5.17</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>150</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>129</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>20</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" ht="22" customHeight="1">
-      <c r="A15" s="8">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>5.18</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>150</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>109</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>40</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" ht="22" customHeight="1">
-      <c r="A16" s="8">
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>5.21</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>150</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>100</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>50</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>0</v>
       </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" ht="22" customHeight="1">
-      <c r="A17" s="8">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>5.22</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>150</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>87</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>60</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <v>3</v>
       </c>
-      <c r="F17" t="s" s="16">
+      <c r="F17" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" ht="22" customHeight="1">
-      <c r="A18" s="8">
+    <row r="18" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>5.23</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="7">
         <v>150</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>116</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>40</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>-6</v>
       </c>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" ht="22" customHeight="1">
-      <c r="A19" s="8">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>5.24</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>150</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>90</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>60</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" ht="22.25" customHeight="1">
-      <c r="A20" s="8">
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>5.25</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <v>150</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>100</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>50</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <v>0</v>
       </c>
-      <c r="F20" t="s" s="17">
+      <c r="F20" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="22" customHeight="1">
-      <c r="A21" s="8">
+    <row r="21" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>5.28</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>150</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>109</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="11">
         <v>40</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="11">
         <v>1</v>
       </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" ht="22.25" customHeight="1">
-      <c r="A22" s="8">
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>5.29</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>210</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>115</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>90</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <v>5</v>
       </c>
-      <c r="F22" t="s" s="15">
+      <c r="F22" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" ht="22" customHeight="1">
-      <c r="A23" s="8">
+    <row r="23" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>5.3</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>150</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <v>103</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="11">
         <v>50</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="11">
         <v>-3</v>
       </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" ht="22" customHeight="1">
-      <c r="A24" s="8">
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>5.31</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="7">
         <v>140</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <v>96</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>40</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <v>4</v>
       </c>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" ht="22.25" customHeight="1">
-      <c r="A25" t="s" s="18">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="13">
+      <c r="B25" s="17"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="11">
         <v>8</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Avenir Next Demi Bold,Regular"&amp;9&amp;KAAAAAA&amp;P</oddFooter>
   </headerFooter>
@@ -1959,453 +2022,452 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="21.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="20" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="20" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="20" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="20" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="20" customWidth="1"/>
+    <col min="1" max="6" width="16.33203125" style="18" customWidth="1"/>
+    <col min="7" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.3" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="22.75" customHeight="1">
-      <c r="A3" s="21">
+    <row r="3" spans="1:6" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
         <v>6.1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>170</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>111</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>60</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>-1</v>
       </c>
-      <c r="F3" t="s" s="22">
+      <c r="F3" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="22" customHeight="1">
-      <c r="A4" s="8">
+    <row r="4" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>6.4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>140</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>118</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>20</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>2</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="22" customHeight="1">
-      <c r="A5" s="8">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>6.5</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>150</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>108</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>50</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>-8</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" ht="22" customHeight="1">
-      <c r="A6" s="8">
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>6.6</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>150</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>97</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>50</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>3</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="22" customHeight="1">
-      <c r="A7" s="8">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>6.7</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>150</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>100</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>50</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" ht="22" customHeight="1">
-      <c r="A8" s="8">
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>6.8</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>150</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>133</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>20</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>-3</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="22" customHeight="1">
-      <c r="A9" s="8">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>6.11</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>150</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>132</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="11">
         <v>20</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <v>-2</v>
       </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" ht="22" customHeight="1">
-      <c r="A10" s="8">
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>6.12</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>150</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>107</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>40</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>3</v>
       </c>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" ht="22" customHeight="1">
-      <c r="A11" s="8">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>6.13</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>140</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>101</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>40</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <v>-1</v>
       </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" ht="22" customHeight="1">
-      <c r="A12" s="8">
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>6.14</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>150</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>89</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>60</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" ht="22" customHeight="1">
-      <c r="A13" s="8">
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>6.15</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="10">
         <v>130</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="11">
         <v>120</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>10</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" ht="22" customHeight="1">
-      <c r="A14" s="8">
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>6.19</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>140</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>91</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>40</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>9</v>
       </c>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" ht="22.25" customHeight="1">
-      <c r="A15" s="8">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>6.2</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="10">
         <v>160</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="11">
         <v>124</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="11">
         <v>40</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <v>-4</v>
       </c>
-      <c r="F15" t="s" s="16">
+      <c r="F15" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" ht="22" customHeight="1">
-      <c r="A16" s="8">
+    <row r="16" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>6.21</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>150</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>108</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>40</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>2</v>
       </c>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" ht="22.25" customHeight="1">
-      <c r="A17" s="8">
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>6.22</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="10">
         <v>130</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="11">
         <v>86</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="11">
         <v>50</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <v>-6</v>
       </c>
-      <c r="F17" t="s" s="16">
+      <c r="F17" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="36.25" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" t="s" s="25">
+    <row r="18" spans="1:6" ht="36.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" ht="22" customHeight="1">
-      <c r="A19" s="8">
+    <row r="19" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>6.25</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="10">
         <v>120</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>90</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="11">
         <v>30</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <v>0</v>
       </c>
-      <c r="F19" t="s" s="16">
+      <c r="F19" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" ht="22" customHeight="1">
-      <c r="A20" s="8">
+    <row r="20" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>6.26</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <v>140</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>87</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>50</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <v>3</v>
       </c>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" ht="22" customHeight="1">
-      <c r="A21" s="8">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>6.27</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="10">
         <v>130</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>79</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="11">
         <v>50</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="11">
         <v>1</v>
       </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" ht="22" customHeight="1">
-      <c r="A22" s="8">
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>6.28</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>120</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>91</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>30</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <v>-1</v>
       </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" ht="22" customHeight="1">
-      <c r="A23" s="8">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>6.29</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>110</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <v>81</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="11">
         <v>30</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="11">
         <v>-1</v>
       </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" ht="22.25" customHeight="1">
-      <c r="A24" t="s" s="18">
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10">
+      <c r="B24" s="22"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8">
         <v>-3</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="F24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Avenir Next Demi Bold,Regular"&amp;9&amp;KAAAAAA&amp;P</oddFooter>
   </headerFooter>
@@ -2413,355 +2475,355 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="21.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="26" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="26" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="26" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="26" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="26" customWidth="1"/>
-    <col min="6" max="6" width="33.4844" style="26" customWidth="1"/>
-    <col min="7" max="256" width="16.3516" style="26" customWidth="1"/>
+    <col min="1" max="5" width="16.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="33.5" style="24" customWidth="1"/>
+    <col min="7" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.3" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:6" ht="31.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="22.75" customHeight="1">
-      <c r="A3" s="21">
+    <row r="3" spans="1:6" ht="22.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
         <v>7.2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>170</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>133</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>40</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>-3</v>
       </c>
-      <c r="F3" t="s" s="22">
+      <c r="F3" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="22" customHeight="1">
-      <c r="A4" s="8">
+    <row r="4" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>7.3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>160</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>117</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>40</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>3</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="22" customHeight="1">
-      <c r="A5" s="8">
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>7.4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>170</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>129</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>40</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" ht="22" customHeight="1">
-      <c r="A6" s="8">
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>7.5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>160</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>120</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>40</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="22.25" customHeight="1">
-      <c r="A7" s="8">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>7.6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>160</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>140</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <v>20</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <v>0</v>
       </c>
-      <c r="F7" t="s" s="16">
+      <c r="F7" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="22" customHeight="1">
-      <c r="A8" s="8">
+    <row r="8" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>7.9</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>160</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>130</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>30</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>0</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" ht="22" customHeight="1">
-      <c r="A9" s="8">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>7.1</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" ht="22.25" customHeight="1">
-      <c r="A10" s="8">
+      <c r="B9" s="17"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <v>7.11</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>160</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>146</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>20</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>-6</v>
       </c>
-      <c r="F10" t="s" s="15">
+      <c r="F10" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" ht="22" customHeight="1">
-      <c r="A11" s="8">
+    <row r="11" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
         <v>7.12</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" ht="22" customHeight="1">
-      <c r="A12" s="8">
+      <c r="B11" s="17"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <v>7.13</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" ht="22" customHeight="1">
-      <c r="A13" s="8">
+      <c r="B12" s="22"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>7.16</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" ht="22" customHeight="1">
-      <c r="A14" s="8">
+      <c r="B13" s="17"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>7.17</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" ht="22" customHeight="1">
-      <c r="A15" s="8">
+      <c r="B14" s="22"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>7.18</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" ht="22" customHeight="1">
-      <c r="A16" s="8">
+      <c r="B15" s="17"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>7.19</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" ht="22" customHeight="1">
-      <c r="A17" s="8">
+      <c r="B16" s="22"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>7.2</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" ht="22" customHeight="1">
-      <c r="A18" s="8">
+      <c r="B17" s="17"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>7.23</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="27"/>
-    </row>
-    <row r="19" ht="22" customHeight="1">
-      <c r="A19" s="8">
+      <c r="B18" s="22"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>7.24</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" ht="22" customHeight="1">
-      <c r="A20" s="8">
+      <c r="B19" s="17"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>7.25</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" ht="22" customHeight="1">
-      <c r="A21" s="8">
+      <c r="B20" s="22"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>7.26</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" ht="22" customHeight="1">
-      <c r="A22" s="8">
+      <c r="B21" s="17"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>7.27</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" ht="22" customHeight="1">
-      <c r="A23" s="8">
+      <c r="B22" s="22"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>7.3</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" ht="22" customHeight="1">
-      <c r="A24" s="8">
+      <c r="B23" s="17"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>7.31</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-    </row>
-    <row r="25" ht="22.25" customHeight="1">
-      <c r="A25" t="s" s="18">
+      <c r="B24" s="22"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Avenir Next Demi Bold,Regular"&amp;9&amp;KAAAAAA&amp;P</oddFooter>
   </headerFooter>
@@ -2769,145 +2831,145 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="21.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="28" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="28" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="28" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="28" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="28" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="28" customWidth="1"/>
+    <col min="1" max="5" width="16.33203125" style="26" customWidth="1"/>
+    <col min="6" max="256" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="22.5" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="22.5" customHeight="1">
-      <c r="A3" s="21">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
         <v>7.12</v>
       </c>
-      <c r="B3" t="s" s="29">
+      <c r="B3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>200</v>
       </c>
-      <c r="D3" t="s" s="22">
+      <c r="D3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" ht="22" customHeight="1">
-      <c r="A4" s="8">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>7.12</v>
       </c>
-      <c r="B4" t="s" s="30">
+      <c r="B4" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>200</v>
       </c>
-      <c r="D4" t="s" s="15">
+      <c r="D4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" ht="22" customHeight="1">
-      <c r="A5" s="8">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>7.12</v>
       </c>
-      <c r="B5" t="s" s="31">
+      <c r="B5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>323</v>
       </c>
-      <c r="D5" t="s" s="16">
+      <c r="D5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" ht="22" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" ht="22" customHeight="1">
-      <c r="A7" s="23"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" ht="22" customHeight="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" ht="22" customHeight="1">
-      <c r="A9" s="23"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" ht="22" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" ht="22" customHeight="1">
-      <c r="A11" s="23"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Avenir Next Demi Bold,Regular"&amp;9&amp;KAAAAAA&amp;P</oddFooter>
   </headerFooter>
